--- a/Results/training_efficency/val_hist.xlsx
+++ b/Results/training_efficency/val_hist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kang\University\MASTERARBEIT\Transformers for Imaging\Results\training_efficency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16255C66-917B-493A-8C8A-D2C422F6EE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1732086F-E9D3-4A92-A2F3-41026238A828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5685" yWindow="2730" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results/training_efficency/val_hist.xlsx
+++ b/Results/training_efficency/val_hist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kang\University\MASTERARBEIT\Transformers for Imaging\Results\training_efficency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1732086F-E9D3-4A92-A2F3-41026238A828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A2308A-E58D-4528-8976-8F4DDBDF9471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="2730" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="2790" windowWidth="20370" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
@@ -88,19 +88,7 @@
     <t>0.7407</t>
   </si>
   <si>
-    <t>0.7406</t>
-  </si>
-  <si>
-    <t>0.7396</t>
-  </si>
-  <si>
-    <t>0.7392</t>
-  </si>
-  <si>
-    <t>0.7390</t>
-  </si>
-  <si>
-    <t>0.7389</t>
+    <t>ViT-60M/10</t>
   </si>
 </sst>
 </file>
@@ -463,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,201 +670,277 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>17</v>
       </c>
       <c r="C8">
-        <v>0.72029905980667186</v>
+        <v>0.72</v>
       </c>
       <c r="D8">
-        <v>0.73108721516356989</v>
+        <v>0.73129999999999995</v>
       </c>
       <c r="E8">
-        <v>0.7334752855578317</v>
+        <v>0.73609999999999998</v>
       </c>
       <c r="F8">
-        <v>0.73590155664634471</v>
+        <v>0.73780000000000001</v>
       </c>
       <c r="G8">
-        <v>0.73701761729238979</v>
+        <v>0.73870000000000002</v>
       </c>
       <c r="H8">
-        <v>0.73771566062590987</v>
-      </c>
-      <c r="I8">
-        <v>0.73801182186759862</v>
-      </c>
-      <c r="J8">
-        <v>0.73829974573739809</v>
-      </c>
-      <c r="K8">
-        <v>0.73876774857778427</v>
-      </c>
-      <c r="L8">
-        <v>0.73902379967189558</v>
-      </c>
-      <c r="M8">
-        <v>0.73937580876708286</v>
-      </c>
-      <c r="N8">
-        <v>0.73952259531876141</v>
-      </c>
-      <c r="O8">
-        <v>0.74042616331027233</v>
-      </c>
-      <c r="P8">
-        <v>0.74033272420830376</v>
+        <v>0.73960000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>35</v>
       </c>
       <c r="C9">
-        <v>0.73044720123042473</v>
+        <v>0.73140185999999996</v>
       </c>
       <c r="D9">
-        <v>0.73642647586743404</v>
+        <v>0.73771059000000005</v>
       </c>
       <c r="E9">
-        <v>0.73909266703919241</v>
+        <v>0.74041323999999997</v>
       </c>
       <c r="F9">
-        <v>0.74043486117338175</v>
+        <v>0.74155196999999995</v>
       </c>
       <c r="G9">
-        <v>0.74076905484002387</v>
+        <v>0.74238371999999997</v>
       </c>
       <c r="H9">
-        <v>0.74166989489810131</v>
+        <v>0.74278732000000003</v>
       </c>
       <c r="I9">
-        <v>0.74212140200575505</v>
+        <v>0.74326983999999996</v>
       </c>
       <c r="J9">
-        <v>0.74242475837349531</v>
+        <v>0.74359571000000002</v>
       </c>
       <c r="K9">
-        <v>0.74273651910073535</v>
+        <v>0.74359147999999997</v>
       </c>
       <c r="L9">
-        <v>0.74293885845575003</v>
+        <v>0.74349363000000002</v>
       </c>
       <c r="M9">
-        <v>0.74302734706047957</v>
+        <v>0.74362806000000004</v>
       </c>
       <c r="N9">
-        <v>0.74303935852255665</v>
+        <v>0.743467427081139</v>
       </c>
       <c r="O9">
-        <v>0.74375406726919602</v>
+        <v>0.74389066700364204</v>
       </c>
       <c r="P9">
-        <v>0.74374692384184038</v>
+        <v>0.74381237507727105</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>17</v>
       </c>
       <c r="C10">
-        <v>0.71865846127454391</v>
+        <v>0.72029905980667186</v>
       </c>
       <c r="D10">
-        <v>0.72757416833475008</v>
+        <v>0.73108721516356989</v>
       </c>
       <c r="E10">
-        <v>0.73088823894659349</v>
+        <v>0.7334752855578317</v>
       </c>
       <c r="F10">
-        <v>0.73216575110934623</v>
+        <v>0.73590155664634471</v>
       </c>
       <c r="G10">
-        <v>0.7332818999750923</v>
+        <v>0.73701761729238979</v>
       </c>
       <c r="H10">
-        <v>0.73486407443476809</v>
+        <v>0.73771566062590987</v>
       </c>
       <c r="I10">
-        <v>0.7355602391028816</v>
+        <v>0.73801182186759862</v>
       </c>
       <c r="J10">
-        <v>0.73622263952112021</v>
+        <v>0.73829974573739809</v>
       </c>
       <c r="K10">
-        <v>0.73669484201700508</v>
+        <v>0.73876774857778427</v>
       </c>
       <c r="L10">
-        <v>0.73711944693473008</v>
+        <v>0.73902379967189558</v>
       </c>
       <c r="M10">
-        <v>0.73759394104441223</v>
+        <v>0.73937580876708286</v>
       </c>
       <c r="N10">
-        <v>0.73760547419533917</v>
+        <v>0.73952259531876141</v>
       </c>
       <c r="O10">
-        <v>0.73908893491304339</v>
+        <v>0.74042616331027233</v>
       </c>
       <c r="P10">
-        <v>0.7391405565815794</v>
+        <v>0.74033272420830376</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>35</v>
       </c>
       <c r="C11">
+        <v>0.73044720123042473</v>
+      </c>
+      <c r="D11">
+        <v>0.73642647586743404</v>
+      </c>
+      <c r="E11">
+        <v>0.73909266703919241</v>
+      </c>
+      <c r="F11">
+        <v>0.74043486117338175</v>
+      </c>
+      <c r="G11">
+        <v>0.74076905484002387</v>
+      </c>
+      <c r="H11">
+        <v>0.74166989489810131</v>
+      </c>
+      <c r="I11">
+        <v>0.74212140200575505</v>
+      </c>
+      <c r="J11">
+        <v>0.74242475837349531</v>
+      </c>
+      <c r="K11">
+        <v>0.74273651910073535</v>
+      </c>
+      <c r="L11">
+        <v>0.74293885845575003</v>
+      </c>
+      <c r="M11">
+        <v>0.74302734706047957</v>
+      </c>
+      <c r="N11">
+        <v>0.74303935852255665</v>
+      </c>
+      <c r="O11">
+        <v>0.74375406726919602</v>
+      </c>
+      <c r="P11">
+        <v>0.74374692384184038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0.71865846127454391</v>
+      </c>
+      <c r="D12">
+        <v>0.72757416833475008</v>
+      </c>
+      <c r="E12">
+        <v>0.73088823894659349</v>
+      </c>
+      <c r="F12">
+        <v>0.73216575110934623</v>
+      </c>
+      <c r="G12">
+        <v>0.7332818999750923</v>
+      </c>
+      <c r="H12">
+        <v>0.73486407443476809</v>
+      </c>
+      <c r="I12">
+        <v>0.7355602391028816</v>
+      </c>
+      <c r="J12">
+        <v>0.73622263952112021</v>
+      </c>
+      <c r="K12">
+        <v>0.73669484201700508</v>
+      </c>
+      <c r="L12">
+        <v>0.73711944693473008</v>
+      </c>
+      <c r="M12">
+        <v>0.73759394104441223</v>
+      </c>
+      <c r="N12">
+        <v>0.73760547419533917</v>
+      </c>
+      <c r="O12">
+        <v>0.73908893491304339</v>
+      </c>
+      <c r="P12">
+        <v>0.7391405565815794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13">
         <v>0.7268</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>0.73299999999999998</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0.73429999999999995</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>0.73599999999999999</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>0.73719999999999997</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>0.7379</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>0.73850000000000005</v>
       </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11">
+      <c r="J13">
+        <v>0.7389</v>
+      </c>
+      <c r="K13">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.73919999999999997</v>
+      </c>
+      <c r="M13">
         <v>0.73939999999999995</v>
       </c>
-      <c r="N11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="N13">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="O13">
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="P13" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Results/training_efficency/val_hist.xlsx
+++ b/Results/training_efficency/val_hist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kang\University\MASTERARBEIT\Transformers for Imaging\Results\training_efficency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A2308A-E58D-4528-8976-8F4DDBDF9471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319CB729-C0C9-42C5-8384-430C96564BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2790" windowWidth="20370" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="3135" windowWidth="20370" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,10 +85,10 @@
     <t>ViT-8M/10</t>
   </si>
   <si>
-    <t>0.7407</t>
-  </si>
-  <si>
     <t>ViT-60M/10</t>
+  </si>
+  <si>
+    <t>"ViT-60M/10" epoch 70 entry is not correct, left it so bc overfitting"</t>
   </si>
 </sst>
 </file>
@@ -144,11 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +671,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -693,10 +694,34 @@
       <c r="H8">
         <v>0.73960000000000004</v>
       </c>
+      <c r="I8">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="J8">
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="K8">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="L8">
+        <v>0.7409</v>
+      </c>
+      <c r="M8">
+        <v>0.7409</v>
+      </c>
+      <c r="N8">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="O8">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.74099999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>35</v>
@@ -940,8 +965,13 @@
       <c r="O13">
         <v>0.74060000000000004</v>
       </c>
-      <c r="P13" t="s">
-        <v>21</v>
+      <c r="P13" s="2">
+        <v>0.74070000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
